--- a/mcmaster_excel/Stainless_Steel_Tamper-Resistant_Button_Head_Hex_Drive_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Tamper-Resistant_Button_Head_Hex_Drive_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.213"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.059"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3/32"</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>95635A260</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$16.40</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,21 +626,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95635A260</t>
+          <t>95635A261</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$16.40</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -619,26 +683,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>95635A261</t>
+          <t>95635A262</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16.80</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -678,21 +750,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>95635A262</t>
+          <t>95635A263</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -732,21 +812,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>95635A263</t>
+          <t>95635A264</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -756,17 +844,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -786,39 +874,91 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>95635A264</t>
+          <t>95635A337</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.262"</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.073"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1/8"</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>95635A338</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -858,21 +998,29 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>95635A337</t>
+          <t>95635A339</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,21 +1060,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>95635A338</t>
+          <t>95635A347</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -966,21 +1122,29 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>95635A339</t>
+          <t>95635A352</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -990,17 +1154,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1020,21 +1184,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>95635A347</t>
+          <t>95635A373</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1044,17 +1216,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1074,39 +1246,91 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>95635A352</t>
+          <t>95635A374</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16.98</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.312"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.087"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>95635A375</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1146,21 +1370,29 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95635A373</t>
+          <t>95635A383</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1200,21 +1432,29 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>95635A374</t>
+          <t>95635A387</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1254,21 +1494,29 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>95635A375</t>
+          <t>95635A391</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1278,12 +1526,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1308,21 +1556,29 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>95635A383</t>
+          <t>95635A240</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1332,12 +1588,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1362,21 +1618,29 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>95635A387</t>
+          <t>95635A242</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1386,12 +1650,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1416,39 +1680,91 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>95635A391</t>
+          <t>95635A245</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14.84</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>95635A403</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1483,26 +1799,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>95635A240</t>
+          <t>95635A404</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1542,21 +1866,29 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>95635A242</t>
+          <t>95635A212</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15.09</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1586,7 +1918,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>__</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1596,21 +1928,29 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>95635A245</t>
+          <t>95635A417</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1650,21 +1990,29 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>95635A403</t>
+          <t>95635A419</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12.52</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1699,44 +2047,96 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>95635A404</t>
+          <t>95635A427</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>95635A431</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1771,26 +2171,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>95635A212</t>
+          <t>95635A432</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1800,12 +2208,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1820,31 +2228,39 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>95635A417</t>
+          <t>95635A535</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1854,12 +2270,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1879,26 +2295,34 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>95635A419</t>
+          <t>95635A536</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15.68</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1908,12 +2332,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1938,21 +2362,29 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>95635A427</t>
+          <t>95635A537</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1962,12 +2394,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1987,26 +2419,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>95635A431</t>
+          <t>95635A539</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2016,12 +2456,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2046,21 +2486,29 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>95635A432</t>
+          <t>95635A540</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2100,12 +2548,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>95635A535</t>
+          <t>95635A542</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2113,12 +2561,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2158,12 +2610,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>95635A536</t>
+          <t>95635A547</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2171,12 +2623,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2211,17 +2667,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>95635A537</t>
+          <t>95635A551</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2229,12 +2685,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2274,12 +2734,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>95635A539</t>
+          <t>95635A211</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2287,12 +2747,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2327,17 +2791,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>95635A540</t>
+          <t>95635A554</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2345,12 +2809,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2390,25 +2858,29 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>95635A542</t>
+          <t>95635A450</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2448,25 +2920,29 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>95635A547</t>
+          <t>95635A451</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2506,25 +2982,29 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>95635A551</t>
+          <t>95635A452</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2534,17 +3014,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2564,25 +3044,29 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>95635A211</t>
+          <t>95635A568</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2592,17 +3076,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2617,30 +3101,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>95635A554</t>
+          <t>95635A567</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2650,17 +3138,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2680,25 +3168,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>95635A450</t>
+          <t>95635A571</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2708,17 +3200,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2733,30 +3225,34 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>95635A451</t>
+          <t>95635A215</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2766,17 +3262,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2791,30 +3287,34 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>95635A452</t>
+          <t>95635A216</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2849,17 +3349,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>95635A568</t>
+          <t>95635A217</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2867,12 +3367,16 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2882,17 +3386,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2912,25 +3416,29 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>95635A567</t>
+          <t>95635A594</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2940,17 +3448,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2965,30 +3473,34 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>95635A571</t>
+          <t>95635A595</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2998,17 +3510,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3028,25 +3540,29 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>95635A215</t>
+          <t>95635A599</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3056,17 +3572,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3086,25 +3602,29 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>95635A216</t>
+          <t>95635A214</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3114,17 +3634,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/32"</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3144,25 +3664,29 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>95635A217</t>
+          <t>95635A607</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3197,17 +3721,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>95635A594</t>
+          <t>95635A608</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3215,297 +3739,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>95635A595</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>95635A599</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>95635A214</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>95635A607</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>11.52</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>95635A608</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>17.61</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
